--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533479AC-A8A8-4106-BC5C-8B54FCEC35C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE5674A-989E-4F88-95AB-7295AC5A956D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="880" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,18 @@
   <si>
     <t>전: &lt;link rel="stylesheet" href="bootstrap/css/bootstrap.css"&gt;
 후: &lt;link rel="stylesheet" href="https://maxcdn.bootstrapcdn.com/bootstrap/3.3.2/css/bootstrap-theme.min.css"&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">WKOA STUDIO 조회가안됨
+조회할때마다 미접속 상태라고 뜸
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키움증권의 영웅문글로벌은 유료서비스… 월 200$ 을 내란다.. 포기
+다른 API를 찾아봐야 할듯하다.
+다른거 찾았음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -158,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -185,6 +197,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -383,6 +398,50 @@
         <a:xfrm>
           <a:off x="722632" y="5849620"/>
           <a:ext cx="5074918" cy="3171824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3631</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>480785</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5965953</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>4207236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1D12E18-FDEE-4073-807C-482818E4BB20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="729345" y="9497785"/>
+          <a:ext cx="5962322" cy="3726451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -659,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -744,7 +803,7 @@
       <c r="C4" s="4">
         <v>44160</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4">
@@ -764,7 +823,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="13"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -792,9 +851,18 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="340" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4">
+        <v>44172</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE5674A-989E-4F88-95AB-7295AC5A956D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2F738-9D7F-4A70-8B5C-64EE4592CE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="880" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,9 +114,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>request.get하는 부분에서 병목현상이 발생함(만약 여기서 데이터 들고오는데 1초 걸리면 20개의 데이터 불러오는데는 20초가 걸림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>키움증권의 영웅문글로벌은 유료서비스… 월 200$ 을 내란다.. 포기
 다른 API를 찾아봐야 할듯하다.
-다른거 찾았음</t>
+다른거 찾았음
+iexcloud에서 제공하는 api사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비동기 통신을 활용해보자
+참조:https://okky.kr/article/832615?note=2173283
+requests.get 하는 부분이 병목인 겁니다.
+정확히는 시리얼하게 처리되기 때문에 requests.get 이 1초가 걸린다고 가정시 20번 호출하면 최소 20초가 걸리는 겁니다.
+파이썬에서 io 문제는 asyncio 를 사용해서 async 하게 처리할 수 있습니다. 즉  requests.get 의 응답을 기다리는 것이 아니라 일단 20번을 다 호출하고 결과를 각각 callback 으로 받을 수 있습니다. 
+1초가 걸리는 requests.get 을 응답을 기다리지 않고 20번을 연속해서 수행합니다.
+문제는 requests 는 asyncio 기반으로 만들어져 있지 않기에 aiohttp 를 추천드립니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 버전으로 돌아가고 싶어서 git clone을 통해 깃에서 자료를 내려받았다.
+그리고 디버그를 하려는데 다음과 같은 에러가 뜨면서 실행이 안된다 (create process=2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\gram17\Desktop\채원\stockWebProgramming2 라는 경로를 검색해본
+결과 경로가 없길래 찾아봤더니 경로 폴더 이름을 stockWebProgramming2이 아닌
+다른 걸로 해놨더라 그래서 바꿔줬더니 정상적으로 작동하긴 하는데 문제는
+다른 오류가 생겼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process finished with exit code 0
+디 버그를 했더니 저딴 오류가 뜬다.
+이전엔 웹경로를 띄워주고 확인하라고 떴는데 애초에 웹사이트를 만드는 파이썬 함수인데
+그건 어디로 날아가버린건지… 결과를 달라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반적인 방법으로 디버그/run하면 안된다.
+cmd: python manage.py runserver 해야 정상적으로 웹페이지가 작동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +190,14 @@
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -170,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -209,7 +260,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,6 +505,100 @@
         <a:xfrm>
           <a:off x="729345" y="9497785"/>
           <a:ext cx="5962322" cy="3726451"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13241</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>226784</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6112328</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>4492121</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4DE93C4-AF36-4FBA-B672-49DFFFBF64DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="738955" y="13561784"/>
+          <a:ext cx="6099087" cy="4265337"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>446043</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7072796</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A33CF318-BC68-4704-A0CE-9A6FCEEFD666}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="18962643"/>
+          <a:ext cx="7034696" cy="4760957"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -716,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -803,7 +960,7 @@
       <c r="C4" s="4">
         <v>44160</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4">
@@ -823,7 +980,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="16"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -862,7 +1019,61 @@
         <v>44172</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4">
+        <v>44174</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4">
+        <v>44177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4">
+        <v>44179</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4">
+        <v>44179</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39C2F738-9D7F-4A70-8B5C-64EE4592CE1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697CEF52-2FA8-4CBB-8054-A67AB18062B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2800" yWindow="2620" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,14 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>run configuration 설정을 python manage.py runserver 명령어 쳤을때랑 똑같이 하고싶은데 안된다..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>runconfiguration &gt; + django server로 설정해준다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,14 +273,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -960,7 +968,7 @@
       <c r="C4" s="4">
         <v>44160</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4">
@@ -980,7 +988,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="17"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -1072,8 +1080,25 @@
       <c r="F10" s="4">
         <v>44179</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="15" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44179</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{697CEF52-2FA8-4CBB-8054-A67AB18062B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3BD27-9F68-481D-99BE-ECFA3D76C297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="2620" windowWidth="20100" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="870" windowWidth="21770" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,17 @@
   </si>
   <si>
     <t>runconfiguration &gt; + django server로 설정해준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비동기통신 하란대로 했는데 시간이 똑같이 나와 ㅋㅋ
+이게 머선129</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹페이지를 비동기로 가져오는 방법으로 구현 완료함
+참조: 1.  https://www.youtube.com/watch?v=qdm2o0JSuXc  6:41~
+       2. https://stackoverflow.com/questions/46727787/runtimeerror-there-is-no-current-event-loop-in-thread-in-async-apscheduler</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,6 +286,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -526,13 +540,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>13241</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>226784</xdr:rowOff>
+      <xdr:rowOff>912584</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6112328</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>4492121</xdr:rowOff>
+      <xdr:rowOff>5177921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -561,7 +575,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="738955" y="13561784"/>
+          <a:off x="737141" y="14234884"/>
           <a:ext cx="6099087" cy="4265337"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -575,13 +589,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>446043</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7072796</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -607,6 +621,94 @@
         <a:xfrm>
           <a:off x="762000" y="18962643"/>
           <a:ext cx="7034696" cy="4760957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1295400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5435600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>20627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689664AA-D8CB-441B-BB11-5401C14E9D34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762001" y="19812000"/>
+          <a:ext cx="5397499" cy="3932227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1282701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4112684</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F965C4A-21A0-4955-A317-6BCBD577C7CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9309100" y="19799301"/>
+          <a:ext cx="4074584" cy="3975099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -881,10 +983,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -968,7 +1070,7 @@
       <c r="C4" s="4">
         <v>44160</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4">
@@ -988,7 +1090,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="17"/>
+      <c r="D5" s="18"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -1038,69 +1140,100 @@
     </row>
     <row r="8" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7" t="s">
+        <v>6.1</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>18</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44172</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="4">
         <v>44177</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44183</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="F9" s="4">
-        <v>44179</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.45">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>24</v>
       </c>
       <c r="F10" s="4">
         <v>44179</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="1">
+    <row r="11" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="6"/>
+      <c r="D11" s="16"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="68" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4">
+        <v>44179</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F13" s="4">
         <v>44179</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G13" s="15" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="1:7" ht="145" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <autoFilter ref="F1:G5" xr:uid="{78A5F5D3-9627-4C18-B3AD-B80CF53760DE}"/>
   <mergeCells count="1">

--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E3BD27-9F68-481D-99BE-ECFA3D76C297}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45EFDE-826F-44E8-B95B-9978CF7713DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="870" windowWidth="21770" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,13 +147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Process finished with exit code 0
-디 버그를 했더니 저딴 오류가 뜬다.
-이전엔 웹경로를 띄워주고 확인하라고 떴는데 애초에 웹사이트를 만드는 파이썬 함수인데
-그건 어디로 날아가버린건지… 결과를 달라고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일반적인 방법으로 디버그/run하면 안된다.
 cmd: python manage.py runserver 해야 정상적으로 웹페이지가 작동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +172,27 @@
     <t>웹페이지를 비동기로 가져오는 방법으로 구현 완료함
 참조: 1.  https://www.youtube.com/watch?v=qdm2o0JSuXc  6:41~
        2. https://stackoverflow.com/questions/46727787/runtimeerror-there-is-no-current-event-loop-in-thread-in-async-apscheduler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디 버그를 했더니 저딴 오류가 뜬다.
+"Process finished with exit code 0"
+이전엔 웹경로를 띄워주고 확인하라고 떴는데 애초에 웹사이트를 만드는 파이썬 함수인데
+그건 어디로 날아가버린건지… 결과를 달라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웹사이트를 비동기로 가져올 때 바이트열 형식으로 다음과 같이 가져오게 되는데
+이렇게 가져오면 json형식이 아니라 추출하여 html로 보낼수가 없다.
+예를 들어 내가 보내고 싶은 값이 symbol값이라면 어떻게 보낼건가?
+1. 그냥 가져올때 바이트형식이 아닌 json형식으로 가져오면 안되나?
+2. 만약에 못가져온다면 저 바이트문자열에서 필요한 값만 딱딱 가져와야 하는데
+symbol값이 필요하다고 치면 symbol값 뒤에 ""에 담긴 값만 가져와야하는데 그 값을 어떻게 가져올건지 고민해보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해결했다. 생각보다 간단했다.
+비동기 형식으로 가져온 바이트값을 str으로 변환후 값을 다시 json형식으로 변환했다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -286,6 +300,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -717,6 +737,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1892300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5346307</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3403600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA9E3E3B-6D6C-49E7-924E-A825230D5732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736600" y="32385000"/>
+          <a:ext cx="13880707" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2438400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6116182</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5194300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B73E90E-5E67-4CB3-8963-5E3CA780B6F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9309101" y="36347400"/>
+          <a:ext cx="6078081" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -983,10 +1091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1070,7 +1178,7 @@
       <c r="C4" s="4">
         <v>44160</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4">
@@ -1090,7 +1198,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="20"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -1163,13 +1271,13 @@
         <v>6.2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>44183</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="2" t="s">
@@ -1190,50 +1298,73 @@
         <v>44179</v>
       </c>
       <c r="G10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="105.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44179</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="4">
+        <v>44179</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="6"/>
-      <c r="D11" s="16"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="68" x14ac:dyDescent="0.45">
-      <c r="A12" s="1">
-        <v>8</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>24</v>
+      <c r="D12" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="F12" s="4">
         <v>44179</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="268.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>10.1</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="17"/>
       <c r="F13" s="4">
-        <v>44179</v>
+        <v>44187</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="145" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="14" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4">
+        <v>44187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="145" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <autoFilter ref="F1:G5" xr:uid="{78A5F5D3-9627-4C18-B3AD-B80CF53760DE}"/>
   <mergeCells count="1">

--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E45EFDE-826F-44E8-B95B-9978CF7713DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C178142-EDD1-42CF-9A11-ECE2117E1F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,16 @@
   <si>
     <t>해결했다. 생각보다 간단했다.
 비동기 형식으로 가져온 바이트값을 str으로 변환후 값을 다시 json형식으로 변환했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql 계정생성을 위해 id를 생성하고 권한을 부여해주려했는데 자꾸 2가 뜨길래 대체 뭔가했더니</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생각보다 간단한 거였다.
+바로 마침표 ;를 찍어주지않아서 문장을 기다린다는 뜻이었다.
+잘 해결했음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -300,6 +310,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -825,6 +838,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6108701</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5186869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8E0004D-516E-4CAA-8333-951A9151F837}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800101" y="39649400"/>
+          <a:ext cx="6032500" cy="4653469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4742148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B31D98E4-B58D-413D-94C0-7D880AE66BC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9283700" y="40525700"/>
+          <a:ext cx="6337300" cy="3332448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1093,8 +1194,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1178,7 +1279,7 @@
       <c r="C4" s="4">
         <v>44160</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4">
@@ -1198,7 +1299,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="20"/>
+      <c r="D5" s="21"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -1362,6 +1463,29 @@
       </c>
       <c r="F14" s="4">
         <v>44187</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="4">
+        <v>44193</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4">
+        <v>44193</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="145" customHeight="1" x14ac:dyDescent="0.45"/>

--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C178142-EDD1-42CF-9A11-ECE2117E1F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB706EFD-CF86-4B34-8D4F-54572A95862C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3170" yWindow="240" windowWidth="22390" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,42 @@
     <t>생각보다 간단한 거였다.
 바로 마침표 ;를 찍어주지않아서 문장을 기다린다는 뜻이었다.
 잘 해결했음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클 데이터베이스 경로: D:\app\gram17\product\11.2.0
+오라클 클라이언트 경로: D:\instantclient-basic-windows.x64-19.9.0.0.0dbru\instantclient_19_9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경변수 설정하려했는데 시발 이게 뭐노…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래서 수동으로 추가해주기로 했다.
+.참조: https://request-response.tistory.com/6
+1) 시스템 변수 - 새로만들기 -&gt; 다음과 같이 설정
+2) 시스템 변수 path 편집 -&gt; 다음과 같이 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">파이썬과 오라클을 연결해주기 위해선 cx_Oracle이란 모듈을 임포트해서 사용해야한다.
+사용하기 위해서는 몇가리 절차가 필요하다.
+-오라클 데이터 베이스 설치/ 오라클클리아언트 설치/ 환경변수 설치
+참조:https://sidorl.tistory.com/34
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오라클 db연결하기
+이런식으로 연결했는데 아예 연결조차 되지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3) 오라클클라이언트 환경변수 설정: 
+시스템 환경변수 PATH 편짐 -&gt; 다음과 같이 추가 (32비트로 바꿨는데도 문제있음)
+참조: https://justdo-heal.tistory.com/11 
+ https://sidorl.tistory.com/34 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,7 +363,22 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -918,6 +969,358 @@
         <a:xfrm>
           <a:off x="9283700" y="40525700"/>
           <a:ext cx="6337300" cy="3332448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>13705</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3390900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BAA16DC-C91B-41BD-B003-C0487A870820}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="49923700"/>
+          <a:ext cx="7201905" cy="2997200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6096000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2724477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4F9AAC1-3D2F-43AF-8E14-CB3C84C9E1DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9258300" y="46761400"/>
+          <a:ext cx="6096000" cy="1752927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3276600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2848371</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1181100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3694ABC-BBEE-42A9-A897-34271B4F05CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9277350" y="49066450"/>
+          <a:ext cx="2829321" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>25401</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1041400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3847871</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="그림 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A18AA348-44C5-409A-9490-531C77E4E98C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296401" y="53835300"/>
+          <a:ext cx="3822470" cy="4203700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>444500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5694859</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3975100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266D3626-B024-4B60-A3AA-8B93039F4B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736600" y="58445400"/>
+          <a:ext cx="5682159" cy="3530600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4000500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2908301</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>443261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8B9CE37-252A-4F3D-9F8C-3093F0863283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736601" y="62001400"/>
+          <a:ext cx="11442700" cy="1116361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2969283</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3270250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5781281</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1162050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A4164B-62C7-45A8-B26F-3EE708A8BED4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12227583" y="49060100"/>
+          <a:ext cx="2811998" cy="3092450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>984251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2602057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3DC5CD3-38EB-49AB-BCB6-986BC9BA7684}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15494000" y="46774101"/>
+          <a:ext cx="5626100" cy="1617806"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1279,7 +1682,7 @@
       <c r="C4" s="4">
         <v>44160</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="21" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4">
@@ -1299,7 +1702,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="22"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -1488,11 +1891,94 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="145" customHeight="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="4">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="24">
+        <v>12.1</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="25"/>
+      <c r="F17" s="26">
+        <v>44193</v>
+      </c>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="24"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="24"/>
+      <c r="D19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="4">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="368" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="24">
+        <v>13</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="26">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="24"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="26"/>
+    </row>
   </sheetData>
   <autoFilter ref="F1:G5" xr:uid="{78A5F5D3-9627-4C18-B3AD-B80CF53760DE}"/>
-  <mergeCells count="1">
+  <mergeCells count="14">
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB706EFD-CF86-4B34-8D4F-54572A95862C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E4A30-64D1-43F5-A4D5-EE866F4A1F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3170" yWindow="240" windowWidth="22390" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -240,6 +240,21 @@
 참조: https://justdo-heal.tistory.com/11 
  https://sidorl.tistory.com/34 </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">day 12 이후로 만진게 없는데 갑자기 이런 오류가 뜬다:
+상태: 실패 -테스트 실패: Listener refused the connection with the following error:
+ORA-12505, TNS:listener does not currently know of SID given in connect descriptor
+ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd: lsnrctl services 해보면 업는 서비스로 나왔다.
+그래서 제어판 -&gt; 관리도구 -&gt; 서비스에 들어가 orcl service를 다시 시작해줬더니 된다!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
   </si>
 </sst>
 </file>
@@ -300,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,22 +377,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1293,8 +1321,8 @@
       <xdr:rowOff>984251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>2602057</xdr:rowOff>
     </xdr:to>
@@ -1327,6 +1355,291 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145298</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1444625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7224355</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4638675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9930BC2-F301-4873-8823-440440EB0C82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="875548" y="64563625"/>
+          <a:ext cx="7079057" cy="3194050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>31751</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1206500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6096000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4644713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2026B3AE-675A-48B0-BEE3-E66130191760}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9302751" y="64325500"/>
+          <a:ext cx="6064249" cy="3438213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>5048250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6064250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2980715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADBE8F1-1E39-4A4F-A418-971AAEDBDD09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9318625" y="68167250"/>
+          <a:ext cx="6016625" cy="3139465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3683000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>920750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BE55866-7D37-430F-832D-3861804560E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19335749" y="61674375"/>
+          <a:ext cx="7175501" cy="2365375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>오류 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>12~14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>의견</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>나도 어떻게 해결했는지 정말 모르겠다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>버그 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>12~13 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>발견당시만 해도 환경변수를 고쳤음에도 늘 같은 오류가 떴었는데</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>다음날 해보니까 갑자기 다른 오류가 뜨더니 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>오류</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>서비스를 다시 시작하니까 드디어 오라클과 장고가 연결된다 ㅠㅠㅠ 시발 감격스러워</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>오늘 안되면 오라클 삭제하고 처음부터 다시 설치해야지 라고 생각했는데 ㅠㅠ 눈물난다</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>가끔</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 버그를 못찾을때는 다음날 보거나 컴퓨터를 껐다 켜보는것도 괜찮은것 같다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1595,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1607,7 +1920,7 @@
     <col min="2" max="2" width="94.9140625" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="80.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1682,7 +1995,7 @@
       <c r="C4" s="4">
         <v>44160</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="24" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4">
@@ -1702,7 +2015,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="22"/>
+      <c r="D5" s="27"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -1783,7 +2096,9 @@
       <c r="D9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="21">
+        <v>44183</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
@@ -1795,6 +2110,9 @@
       <c r="B10" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="C10" s="21">
+        <v>44179</v>
+      </c>
       <c r="D10" s="13" t="s">
         <v>22</v>
       </c>
@@ -1832,6 +2150,9 @@
       <c r="B12" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="C12" s="21">
+        <v>44179</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>26</v>
       </c>
@@ -1849,6 +2170,9 @@
       <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
+      <c r="C13" s="21">
+        <v>44187</v>
+      </c>
       <c r="D13" s="17"/>
       <c r="F13" s="4">
         <v>44187</v>
@@ -1861,6 +2185,9 @@
       <c r="A14" s="1">
         <v>10.199999999999999</v>
       </c>
+      <c r="C14" s="21">
+        <v>44187</v>
+      </c>
       <c r="D14" s="18" t="s">
         <v>31</v>
       </c>
@@ -1898,73 +2225,138 @@
       <c r="B16" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="C16" s="4">
+        <v>44193</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="21">
         <v>44193</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="24">
+      <c r="A17" s="23">
         <v>12.1</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="22">
+        <v>44193</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="26">
-        <v>44193</v>
-      </c>
-      <c r="G17" s="24"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="22">
+        <v>44195</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="24"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="24"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="24"/>
+      <c r="A19" s="23"/>
+      <c r="C19" s="21">
+        <v>44193</v>
+      </c>
       <c r="D19" s="20" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="4">
-        <v>44193</v>
+        <v>44195</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="368" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="24">
+      <c r="A20" s="23">
         <v>13</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="26">
+      <c r="C20" s="22">
         <v>44193</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="22">
+        <v>44195</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="24"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="26"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="30"/>
+    </row>
+    <row r="22" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="23">
+        <v>14</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="22">
+        <v>44195</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="22">
+        <v>44195</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="237" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="23"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="30"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:G5" xr:uid="{78A5F5D3-9627-4C18-B3AD-B80CF53760DE}"/>
-  <mergeCells count="14">
+  <mergeCells count="22">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="A17:A19"/>
@@ -1974,11 +2366,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A3E4A30-64D1-43F5-A4D5-EE866F4A1F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9B11AC-1141-47B2-AF6F-35ECF5167453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="570" yWindow="0" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -315,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,27 +386,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,7 +844,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>5346307</xdr:colOff>
+      <xdr:colOff>2599932</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>3403600</xdr:rowOff>
     </xdr:to>
@@ -1013,8 +1019,8 @@
       <xdr:rowOff>393700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>13705</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7252705</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>3390900</xdr:rowOff>
     </xdr:to>
@@ -1234,7 +1240,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2908301</xdr:colOff>
+      <xdr:colOff>161926</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>443261</xdr:rowOff>
     </xdr:to>
@@ -1908,16 +1914,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
+      <selection activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94.9140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="131" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="80.33203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.08203125" style="1" customWidth="1"/>
@@ -1995,7 +2001,7 @@
       <c r="C4" s="4">
         <v>44160</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4">
@@ -2015,7 +2021,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="27"/>
+      <c r="D5" s="30"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -2239,37 +2245,37 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="23">
+      <c r="A17" s="26">
         <v>12.1</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="24">
         <v>44193</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="22">
+      <c r="E17" s="31"/>
+      <c r="F17" s="24">
         <v>44195</v>
       </c>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="23"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="31"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
+      <c r="A19" s="26"/>
       <c r="C19" s="21">
         <v>44193</v>
       </c>
@@ -2284,79 +2290,70 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="368" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="23">
+      <c r="A20" s="26">
         <v>13</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="24">
         <v>44193</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="22">
+      <c r="D20" s="33"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="24">
         <v>44195</v>
       </c>
-      <c r="G20" s="30" t="s">
+      <c r="G20" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="23"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="30"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="23">
+      <c r="A22" s="26">
         <v>14</v>
       </c>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="22">
+      <c r="C22" s="24">
         <v>44195</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="28" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="29"/>
-      <c r="F22" s="22">
+      <c r="F22" s="24">
         <v>44195</v>
       </c>
-      <c r="G22" s="30" t="s">
+      <c r="G22" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="237" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="23"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="24"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="28"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="30"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:7" ht="320" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="23"/>
+      <c r="C24" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:G5" xr:uid="{78A5F5D3-9627-4C18-B3AD-B80CF53760DE}"/>
   <mergeCells count="22">
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="A17:A19"/>
@@ -2366,6 +2363,19 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9B11AC-1141-47B2-AF6F-35ECF5167453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF92C968-B91B-4D31-8F93-6FCC1C337424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="0" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="210" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,12 @@
   </si>
   <si>
     <t>완료</t>
+  </si>
+  <si>
+    <t>127.0.0.1:8000/stockpage 이 페이지에서 상단 stock 마크를 입력하면 mainpage로 돌아가고싶다.
+근데 href를 이용하면 뒤에 값으로 추가돼서 mainpage로 갈수가 없다….
+한마디로 localhost:// 화면으로 돌아가고싶다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -315,7 +321,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,27 +398,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,6 +1655,94 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4540250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3683000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8265045</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5035739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD37CB30-975B-433D-89B5-352B5ACBB95F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5270500" y="75025250"/>
+          <a:ext cx="3724795" cy="1352739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>80570</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1365250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4556125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5100468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA7A8F64-DFC2-4C4C-932C-B09DAC53BA01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="810820" y="72707500"/>
+          <a:ext cx="4475555" cy="3735218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1916,8 +2013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B23"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2021,7 +2118,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -2245,10 +2342,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="26">
+      <c r="A17" s="27">
         <v>12.1</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="24">
@@ -2257,7 +2354,7 @@
       <c r="D17" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="30"/>
       <c r="F17" s="24">
         <v>44195</v>
       </c>
@@ -2266,16 +2363,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="26"/>
-      <c r="B18" s="30"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="24"/>
       <c r="D18" s="28"/>
-      <c r="E18" s="31"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="32"/>
+      <c r="G18" s="26"/>
     </row>
     <row r="19" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="26"/>
+      <c r="A19" s="27"/>
       <c r="C19" s="21">
         <v>44193</v>
       </c>
@@ -2290,7 +2387,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="368" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="26">
+      <c r="A20" s="27">
         <v>13</v>
       </c>
       <c r="B20" s="28" t="s">
@@ -2299,8 +2396,8 @@
       <c r="C20" s="24">
         <v>44193</v>
       </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="31"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
       <c r="F20" s="24">
         <v>44195</v>
       </c>
@@ -2309,19 +2406,19 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="26">
+      <c r="A22" s="27">
         <v>14</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="32" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="24">
@@ -2330,7 +2427,7 @@
       <c r="D22" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="29"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="24">
         <v>44195</v>
       </c>
@@ -2339,21 +2436,39 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="237" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="26"/>
-      <c r="B23" s="27"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="32"/>
       <c r="C23" s="24"/>
       <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
     </row>
-    <row r="24" spans="1:7" ht="320" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="23"/>
+    <row r="24" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="23">
+        <v>15</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>43</v>
+      </c>
       <c r="C24" s="22"/>
     </row>
   </sheetData>
   <autoFilter ref="F1:G5" xr:uid="{78A5F5D3-9627-4C18-B3AD-B80CF53760DE}"/>
   <mergeCells count="22">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
     <mergeCell ref="F17:F18"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="A17:A19"/>
@@ -2363,19 +2478,6 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/관련 폴더/오류목록.xlsx
+++ b/관련 폴더/오류목록.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF92C968-B91B-4D31-8F93-6FCC1C337424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C672F8-6AD5-44D4-9DB1-10F9D092EC02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="210" windowWidth="17660" windowHeight="15290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1600" windowWidth="23250" windowHeight="14400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="AWS" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AWS!$F$1:$G$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$G$5</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +262,42 @@
     <t>127.0.0.1:8000/stockpage 이 페이지에서 상단 stock 마크를 입력하면 mainpage로 돌아가고싶다.
 근데 href를 이용하면 뒤에 값으로 추가돼서 mainpage로 갈수가 없다….
 한마디로 localhost:// 화면으로 돌아가고싶다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYSQL에서 Amazon서 만든 DB에 연결하려니 이런 오류가 발생한다.
+HostName 에는 연결하려는 DB의 엔드포인트를 입력한 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">DB인스턴스 수정&gt; 네트워크 및 보안&gt;추가 구성 연결 &gt; 퍼블릭 네트워크 액세스를 "예"로 변경해준다. 단, 보안에 취약하다는 문제가 있으므로 신중한 고려가 필요하다. 외부로부터 접속이 가능한 경우 원격을 DB작업을 수행할 수 있지만 RDS인스턴스도 외부에 노출되어있기때문에 보안위험성도 높은 상태.
+이를 보완하기 위해
+1) 퍼블릭 액세스 가능성을 아니오 선택 후, 같은 VPC 네트워크 사용
+사용시 많은 제한이 따르는 단점 
+2) IAM DB인증 사용. AWS 별도의 사용자 생성 후 RDS인스턴스에 대한 권한 부여.
+세분화된 보안관리에 적합
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지 진행 상황
+connection Name: DB식별자 입력
+Username: 마스터 사용자 입력
+password : 입력
+hostname: 엔트포인트입력
+퍼블릭 엑시스 가능성: 예</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vpc 수정:
+vpc 콘솔&gt; 설정된 인스턴스 보안그룹&gt;인바운드 규칙 클릭&gt; 사용자 ip 설정 또는 위치 무관으로 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결론:
+connection Name: 본인이 지정할 이름
+Username: 마스터 사용자 입력 + 비밀번호입력
+hostname: 엔트포인트입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,9 +449,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -423,6 +458,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1741,6 +1804,954 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1892300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2599932</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3403600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{760D8136-8BC6-41F5-90FC-D7BD15CB32B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="736600" y="32365950"/>
+          <a:ext cx="13871182" cy="1511300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>2438400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6116182</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>5194300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A030CC-CDBB-42C2-B6E7-FFF4085AE09E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12045951" y="36322000"/>
+          <a:ext cx="6078081" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6108701</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>5186869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89879332-B23C-4E92-8B57-5D28D3B16642}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800101" y="39617650"/>
+          <a:ext cx="6032500" cy="4653469"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1409700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4742148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFBF7DE6-28AF-438A-AFFE-AF2C5AE5FFD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12020550" y="40493950"/>
+          <a:ext cx="6337300" cy="3332448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>393700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7252705</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3390900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA6A1D0-4CE2-4259-BDB1-A350B5CEC8A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="774700" y="46183550"/>
+          <a:ext cx="7201905" cy="2997200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>971550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6096000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2724477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD899A2D-5488-4096-A39C-10790B3AC348}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12007850" y="46761400"/>
+          <a:ext cx="6096000" cy="1752927"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3276600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2848371</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1181099</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{988234D9-A6A7-419B-A672-693D891FD467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12026900" y="49066450"/>
+          <a:ext cx="2829321" cy="3105150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2969283</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3270250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5781281</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1162049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{882B218F-EFF4-4CC0-A539-A9338F54660A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14977133" y="49060100"/>
+          <a:ext cx="2811998" cy="3092450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>984251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2602057</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06531F18-15B2-4916-9806-F07D1F025DD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18243550" y="46774101"/>
+          <a:ext cx="5632450" cy="1617806"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>3683000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>920750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F3036E5-0998-49B9-AA84-FA99EDAD04F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22040849" y="61626750"/>
+          <a:ext cx="7112001" cy="2368550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="31750" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>오류 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>12~14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>의견</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>나도 어떻게 해결했는지 정말 모르겠다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>버그 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>12~13 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>발견당시만 해도 환경변수를 고쳤음에도 늘 같은 오류가 떴었는데</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>다음날 해보니까 갑자기 다른 오류가 뜨더니 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>(14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>오류</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>서비스를 다시 시작하니까 드디어 오라클과 장고가 연결된다 ㅠㅠㅠ 시발 감격스러워</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>오늘 안되면 오라클 삭제하고 처음부터 다시 설치해야지 라고 생각했는데 ㅠㅠ 눈물난다</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>가끔</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 버그를 못찾을때는 다음날 보거나 컴퓨터를 껐다 켜보는것도 괜찮은것 같다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4540250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>3683000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8265045</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5035739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA56837-60C3-41DB-8A6F-1D0CBCD47DF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5264150" y="74968100"/>
+          <a:ext cx="3724795" cy="1352739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>80570</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1365250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4556125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5100468</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3ACFC07-64C6-49AE-804F-EA97506879B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="804470" y="72650350"/>
+          <a:ext cx="4475555" cy="3735218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45359</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1040946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6188983</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5170647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1577890A-6AF8-43BB-A57C-154FF3803EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771073" y="1258660"/>
+          <a:ext cx="6143624" cy="4129701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>45357</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2086426</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9455</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4599212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2E85087-EE09-4523-9DF0-1B59E47C55A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12055928" y="2304140"/>
+          <a:ext cx="6087313" cy="2512786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>81641</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2503713</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6032500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3655786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="직사각형 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45E91272-0495-4B1D-9602-0584BC219694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12092212" y="2721427"/>
+          <a:ext cx="5950859" cy="1152073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5710665</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>870859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3734343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7BA579B-5DCD-48DB-8C99-80A834D207C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6436379" y="6286502"/>
+          <a:ext cx="4267908" cy="2863484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1297216</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1726746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4096461</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>45356</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D37DD316-6E53-45A5-8E9F-3D0E07948C8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12001502" y="10916103"/>
+          <a:ext cx="4105530" cy="2754539"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>18144</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>669544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>6059716</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3590791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A591940-E90B-41D5-B0E3-57447CB975F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12028715" y="6085187"/>
+          <a:ext cx="6041572" cy="2921247"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2013,8 +3024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2098,7 +3109,7 @@
       <c r="C4" s="4">
         <v>44160</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="38" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="4">
@@ -2118,7 +3129,7 @@
       <c r="C5" s="4">
         <v>44160</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="41"/>
       <c r="F5" s="4">
         <v>44160</v>
       </c>
@@ -2342,37 +3353,37 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="27">
+      <c r="A17" s="37">
         <v>12.1</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="34">
         <v>44193</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="30"/>
-      <c r="F17" s="24">
+      <c r="E17" s="40"/>
+      <c r="F17" s="34">
         <v>44195</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="27"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="26"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="27"/>
+      <c r="A19" s="37"/>
       <c r="C19" s="21">
         <v>44193</v>
       </c>
@@ -2387,68 +3398,68 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="368" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="27">
+      <c r="A20" s="37">
         <v>13</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="34">
         <v>44193</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="24">
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="34">
         <v>44195</v>
       </c>
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
     </row>
     <row r="22" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="27">
+      <c r="A22" s="37">
         <v>14</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="34">
         <v>44195</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="24">
+      <c r="E22" s="43"/>
+      <c r="F22" s="34">
         <v>44195</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="35" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="237" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="27"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
     </row>
     <row r="24" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="23">
         <v>15</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="22"/>
@@ -2484,4 +3495,311 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21AA5AAB-9698-492A-BF42-56C6AD35560E}">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="131" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.08203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="80.33203125" style="30" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="32"/>
+    <col min="6" max="6" width="19.08203125" style="27" customWidth="1"/>
+    <col min="7" max="7" width="13.25" style="27" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="24">
+        <v>44259</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" ht="297" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="24">
+        <v>44259</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="349" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="27">
+        <v>1.2</v>
+      </c>
+      <c r="C4" s="24">
+        <v>44259</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="172" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="27">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="28"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="27">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="28"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="27">
+        <v>6.1</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="28"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="27">
+        <v>6.2</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="28"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="27">
+        <v>7</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="28"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="1:7" ht="105.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="27">
+        <v>8</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="28"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="27">
+        <v>9</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7" ht="268.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="27">
+        <v>10.1</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="28"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="27">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="28"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="27">
+        <v>11</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="28"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="27">
+        <v>12</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="28"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
+    </row>
+    <row r="17" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="37">
+        <v>12.1</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="37"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="19" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="37"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="28"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" ht="368" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="37">
+        <v>13</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="37">
+        <v>14</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+    </row>
+    <row r="23" spans="1:7" ht="237" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="37"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:7" ht="409.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="27">
+        <v>15</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="24"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="F1:G5" xr:uid="{78A5F5D3-9627-4C18-B3AD-B80CF53760DE}"/>
+  <mergeCells count="21">
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>